--- a/exercises/src/com/agentecon/exercise2/Fixed costs for both goods.xlsx
+++ b/exercises/src/com/agentecon/exercise2/Fixed costs for both goods.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal Global Production" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -21068,11 +21068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33650,7 +33650,7 @@
         <v>96</v>
       </c>
       <c r="B963">
-        <f t="shared" ref="B963:B1026" si="30">F$4*F$8/(F$8-A963*F$6)+F$5*F$9/(F$9-A963*F$7)-1</f>
+        <f t="shared" ref="B963:B1003" si="30">F$4*F$8/(F$8-A963*F$6)+F$5*F$9/(F$9-A963*F$7)-1</f>
         <v>-6.0439560439560558E-2</v>
       </c>
       <c r="C963" s="1">
@@ -34186,7 +34186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -34468,10 +34468,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:T46"/>
     </sheetView>
   </sheetViews>
@@ -34719,7 +34719,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A53" si="1">A3+1</f>
+        <f t="shared" ref="A4:A46" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
